--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-07-the-sort-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-07-the-sort-function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FB44A096-DED3-4129-AB5D-7EA2DA5EDACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4EAE76F-9746-4573-ADF0-DCA049B9CA3E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B1488-7F79-4E63-B4D4-C028425A75E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="SORT" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,33 +468,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="4" max="4" width="8.8984375" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" customWidth="1"/>
     <col min="10" max="11" width="9.5" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -498,77 +520,138 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>1878</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="str" cm="1">
+        <f t="array" ref="F4:I15">_xlfn._xlws.SORT(A4:D15,3,-1,FALSE)</f>
+        <v>Austin Gill</v>
+      </c>
+      <c r="G4" t="str">
+        <v>USA</v>
+      </c>
+      <c r="H4">
         <v>4833</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" t="str">
+        <v>Gold</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5">
-        <v>2472</v>
+        <v>2687</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <v>Randal Warren</v>
+      </c>
+      <c r="G5" t="str">
+        <v>USA</v>
+      </c>
+      <c r="H5">
+        <v>4784</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4784</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Myron Lawson</v>
+      </c>
+      <c r="G6" t="str">
+        <v>USA</v>
+      </c>
+      <c r="H6">
+        <v>4687</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Bronze</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
-        <v>3539</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
       <c r="C7">
-        <v>3288</v>
+        <v>2573</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <v>Ed Arnold</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="H7">
+        <v>4650</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4650</v>
+        <v>2158</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <v>James Walsh</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="H8">
+        <v>4426</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Bronze</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -581,97 +664,184 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <v>Ignacio Hughes</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="H9">
+        <v>3539</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Bronze</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2687</v>
+        <v>4426</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Eileen Richards</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="H10">
+        <v>3288</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>1878</v>
+        <v>3539</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <v>Roy Lynch</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Great Britain</v>
+      </c>
+      <c r="H11">
+        <v>2687</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Gold</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2472</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Ramona Moody</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="H12">
+        <v>2573</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>4426</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>2158</v>
+        <v>3288</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <v>Ethel Evans</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Great Britain</v>
+      </c>
+      <c r="H13">
+        <v>2472</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Gold</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>2573</v>
+        <v>4650</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <v>Nancy Johnson</v>
+      </c>
+      <c r="G14" t="str">
+        <v>USA</v>
+      </c>
+      <c r="H14">
+        <v>2158</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4784</v>
+        <v>4833</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Willie Brewer</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="H15">
+        <v>1878</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Bronze</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -684,27 +854,337 @@
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="str" cm="1">
+        <f t="array" ref="A22:D33">_xlfn._xlws.SORT(A4:D15,2,-1,FALSE)</f>
+        <v>Randal Warren</v>
+      </c>
+      <c r="B22" t="str">
+        <v>USA</v>
+      </c>
+      <c r="C22">
+        <v>4784</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Silver</v>
+      </c>
+      <c r="F22" t="str" cm="1">
+        <f t="array" ref="F22:I33">_xlfn._xlws.SORT(A4:D15,{2,3},{1,-1},FALSE)</f>
+        <v>Ed Arnold</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="H22">
+        <v>4650</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <v>Nancy Johnson</v>
+      </c>
+      <c r="B23" t="str">
+        <v>USA</v>
+      </c>
+      <c r="C23">
+        <v>2158</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Silver</v>
+      </c>
+      <c r="F23" t="str">
+        <v>James Walsh</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="H23">
+        <v>4426</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Bronze</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <v>Myron Lawson</v>
+      </c>
+      <c r="B24" t="str">
+        <v>USA</v>
+      </c>
+      <c r="C24">
+        <v>4687</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Bronze</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Eileen Richards</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="H24">
+        <v>3288</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <v>Austin Gill</v>
+      </c>
+      <c r="B25" t="str">
+        <v>USA</v>
+      </c>
+      <c r="C25">
+        <v>4833</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Gold</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Willie Brewer</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="H25">
+        <v>1878</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Bronze</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <v>Ramona Moody</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="C26">
+        <v>2573</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Silver</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Roy Lynch</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Great Britain</v>
+      </c>
+      <c r="H26">
+        <v>2687</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Gold</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <v>Ignacio Hughes</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="C27">
+        <v>3539</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Bronze</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Ethel Evans</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Great Britain</v>
+      </c>
+      <c r="H27">
+        <v>2472</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Gold</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <v>Roy Lynch</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Great Britain</v>
+      </c>
+      <c r="C28">
+        <v>2687</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Gold</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Ignacio Hughes</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="H28">
+        <v>3539</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Bronze</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <v>Ethel Evans</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Great Britain</v>
+      </c>
+      <c r="C29">
+        <v>2472</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Gold</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Ramona Moody</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="H29">
+        <v>2573</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <v>Willie Brewer</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="C30">
+        <v>1878</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Bronze</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Austin Gill</v>
+      </c>
+      <c r="G30" t="str">
+        <v>USA</v>
+      </c>
+      <c r="H30">
+        <v>4833</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Gold</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <v>James Walsh</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="C31">
+        <v>4426</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Bronze</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Randal Warren</v>
+      </c>
+      <c r="G31" t="str">
+        <v>USA</v>
+      </c>
+      <c r="H31">
+        <v>4784</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <v>Eileen Richards</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="C32">
+        <v>3288</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Silver</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Myron Lawson</v>
+      </c>
+      <c r="G32" t="str">
+        <v>USA</v>
+      </c>
+      <c r="H32">
+        <v>4687</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Bronze</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <v>Ed Arnold</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="C33">
+        <v>4650</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Silver</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Nancy Johnson</v>
+      </c>
+      <c r="G33" t="str">
+        <v>USA</v>
+      </c>
+      <c r="H33">
+        <v>2158</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D15">
+    <sortCondition descending="1" ref="A7:A15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
